--- a/Resources/7-data.xlsx
+++ b/Resources/7-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>WHNumber</t>
+  </si>
+  <si>
+    <t>CLUB-010-COM</t>
+  </si>
+  <si>
+    <t>530LSS4P</t>
+  </si>
+  <si>
+    <t>USTPU25</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,96 +590,72 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3">
-        <v>5</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="3">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -676,34 +664,34 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="3">
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
@@ -719,27 +707,27 @@
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -755,6 +743,78 @@
         <v>5</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Resources/7-data.xlsx
+++ b/Resources/7-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t>WHNumber</t>
-  </si>
-  <si>
-    <t>CLUB-010-COM</t>
-  </si>
-  <si>
-    <t>530LSS4P</t>
-  </si>
-  <si>
-    <t>USTPU25</t>
   </si>
 </sst>
 </file>
@@ -210,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,9 +211,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,72 +578,96 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -664,34 +676,34 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="3">
         <v>5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
@@ -707,27 +719,27 @@
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -743,78 +755,6 @@
         <v>5</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3">
-        <v>5</v>
-      </c>
-      <c r="N8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
